--- a/doc/wirtschaftsstruktur_parameter.xlsx
+++ b/doc/wirtschaftsstruktur_parameter.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcdon\Google Drive\Arbeit\01_PropTechTools GmbH\Webserver\PTT-API-Solutions\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A15DA5-9316-42DB-B03C-D7E28433451A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{757431AE-23B8-44C8-A847-7BB389AB54CD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameter Wirtschaftsstruktur" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -31,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>Wirtschaftsstruktur Parameter</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="106">
   <si>
     <t>Keine Angabe</t>
   </si>
@@ -187,13 +181,178 @@
   </si>
   <si>
     <t>Wirtschaft &amp; Politik</t>
+  </si>
+  <si>
+    <t>agrarwirtschaft</t>
+  </si>
+  <si>
+    <t>automobilindustrie</t>
+  </si>
+  <si>
+    <t>bahnindustrie</t>
+  </si>
+  <si>
+    <t>bauwirtschaft</t>
+  </si>
+  <si>
+    <t>digitalwirtschaft</t>
+  </si>
+  <si>
+    <t>finanzwirtschaft</t>
+  </si>
+  <si>
+    <t>genussmittelindustrie</t>
+  </si>
+  <si>
+    <t>gesundheitswirtschaft</t>
+  </si>
+  <si>
+    <t>glasindustrie</t>
+  </si>
+  <si>
+    <t>handelsindustrie</t>
+  </si>
+  <si>
+    <t>kautschukindustrie</t>
+  </si>
+  <si>
+    <t>kosmetikindustrie</t>
+  </si>
+  <si>
+    <t>kunststoffindustrie</t>
+  </si>
+  <si>
+    <t>metallindustrie</t>
+  </si>
+  <si>
+    <t>pflegewirtschaft</t>
+  </si>
+  <si>
+    <t>schmuckindustrie</t>
+  </si>
+  <si>
+    <t>schuhindustrie</t>
+  </si>
+  <si>
+    <t>spielwarenindustrie</t>
+  </si>
+  <si>
+    <t>sportwirtschaft</t>
+  </si>
+  <si>
+    <t>textilindustrie</t>
+  </si>
+  <si>
+    <t>verpackungsindustrie</t>
+  </si>
+  <si>
+    <t>werkstoffindustrie</t>
+  </si>
+  <si>
+    <t>ruestungsindustrie</t>
+  </si>
+  <si>
+    <t>ernaehrungsindustrie</t>
+  </si>
+  <si>
+    <t>bergbau_und_rohstoffe</t>
+  </si>
+  <si>
+    <t>chemie_und_pharmazie</t>
+  </si>
+  <si>
+    <t>dienstleistung_und_handwerk</t>
+  </si>
+  <si>
+    <t>energie_und_umwelt</t>
+  </si>
+  <si>
+    <t>feinmechanik_und_optik</t>
+  </si>
+  <si>
+    <t>forschung_und_entwicklung</t>
+  </si>
+  <si>
+    <t>informationstechnik_und_kommunikation</t>
+  </si>
+  <si>
+    <t>medien_und_marketing</t>
+  </si>
+  <si>
+    <t>schließsysteme_und_sicherheitstechnik</t>
+  </si>
+  <si>
+    <t>tourismus_und_gastronomie</t>
+  </si>
+  <si>
+    <t>verkehr_und_logistik</t>
+  </si>
+  <si>
+    <t>wirtschaft_und_politik</t>
+  </si>
+  <si>
+    <t>elektrotechnik_und_elektronikindustrie</t>
+  </si>
+  <si>
+    <t>luft_und_raumfahrt</t>
+  </si>
+  <si>
+    <t>maritime_wirtschaft</t>
+  </si>
+  <si>
+    <t>maschinen_und_anlagenbau</t>
+  </si>
+  <si>
+    <t>papier_und_druckindustrie</t>
+  </si>
+  <si>
+    <t>post_und_kuriergewerbe</t>
+  </si>
+  <si>
+    <t>keine_angabe</t>
+  </si>
+  <si>
+    <t>bio_und_gentechnologie</t>
+  </si>
+  <si>
+    <t>feinkeramische_industrie</t>
+  </si>
+  <si>
+    <t>high_tech_und_innovation</t>
+  </si>
+  <si>
+    <t>holz_und_moebelindustrie</t>
+  </si>
+  <si>
+    <t>kredit_und_versicherungsgewerbe</t>
+  </si>
+  <si>
+    <t>kultur_und_kreativwirtschaft</t>
+  </si>
+  <si>
+    <t>kunst_und_klebstoffindustrie</t>
+  </si>
+  <si>
+    <t>leder_warenindustrie</t>
+  </si>
+  <si>
+    <t>Wirtschaftsstruktur</t>
+  </si>
+  <si>
+    <t>dropdownparameter</t>
+  </si>
+  <si>
+    <t>request dropdownparameter (encodeURIComponent)</t>
+  </si>
+  <si>
+    <t>request alterative parameter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +373,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +413,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -231,20 +421,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -302,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -354,7 +584,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -548,291 +778,620 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BDB286-FD16-41F1-AF76-EF00308884F9}">
-  <dimension ref="A1:A54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="B42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="B44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="B48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B49" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="B50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B51" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="B52" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="B53" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="B54" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/wirtschaftsstruktur_parameter.xlsx
+++ b/doc/wirtschaftsstruktur_parameter.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24816"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26600" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter Wirtschaftsstruktur" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
   <si>
     <t>Keine Angabe</t>
   </si>
@@ -342,10 +343,10 @@
     <t>dropdownparameter</t>
   </si>
   <si>
-    <t>request dropdownparameter (encodeURIComponent)</t>
-  </si>
-  <si>
-    <t>request alterative parameter</t>
+    <t xml:space="preserve">request via "encodeURIComponent(&lt;parameter&gt;)" </t>
+  </si>
+  <si>
+    <t>alterative request parameter</t>
   </si>
 </sst>
 </file>
@@ -431,8 +432,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -461,19 +484,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -778,7 +823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -789,13 +834,13 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1394,4 +1439,282 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/doc/wirtschaftsstruktur_parameter.xlsx
+++ b/doc/wirtschaftsstruktur_parameter.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24816"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PTT-MH\Documents\GitHub\PTT-API-Solutions\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839373D7-8457-494D-A2E0-1EF85341237B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26600" windowHeight="14900"/>
+    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter Wirtschaftsstruktur" sheetId="1" r:id="rId1"/>
@@ -12,17 +18,11 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -280,9 +280,6 @@
     <t>medien_und_marketing</t>
   </si>
   <si>
-    <t>schließsysteme_und_sicherheitstechnik</t>
-  </si>
-  <si>
     <t>tourismus_und_gastronomie</t>
   </si>
   <si>
@@ -347,13 +344,16 @@
   </si>
   <si>
     <t>alterative request parameter</t>
+  </si>
+  <si>
+    <t>schliesssysteme_und_sicherheitstechnik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,46 +823,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="A3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -939,7 +939,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -983,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>33</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>46</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>47</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>50</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1442,16 +1442,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
